--- a/data/trans_camb/P10_1_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P10_1_R-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 5,43</t>
+          <t>-0,9; 4,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 1,16</t>
+          <t>-4,67; 1,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 4,16</t>
+          <t>-2,17; 3,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,53; 13,39</t>
+          <t>7,3; 13,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,81; 12,33</t>
+          <t>5,87; 12,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,23; 13,72</t>
+          <t>7,25; 13,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,78; 9,03</t>
+          <t>4,65; 8,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,15; 6,9</t>
+          <t>2,11; 6,86</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,57; 9,2</t>
+          <t>4,37; 9,17</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 56,61</t>
+          <t>-7,05; 50,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-37,79; 12,07</t>
+          <t>-37,38; 10,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-17,53; 42,45</t>
+          <t>-16,92; 39,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>49,2; 107,38</t>
+          <t>48,49; 108,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>38,11; 98,98</t>
+          <t>38,72; 100,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>48,73; 111,05</t>
+          <t>47,69; 111,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>35,18; 77,56</t>
+          <t>34,23; 77,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,76; 58,88</t>
+          <t>15,78; 58,41</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>33,44; 77,49</t>
+          <t>32,09; 77,5</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 2,31</t>
+          <t>-0,28; 2,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,8; 3,49</t>
+          <t>0,88; 3,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,51; 3,35</t>
+          <t>0,42; 3,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,83; 4,87</t>
+          <t>0,84; 4,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 3,39</t>
+          <t>-0,24; 3,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 3,18</t>
+          <t>-0,53; 3,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,95</t>
+          <t>0,76; 3,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,82; 3,17</t>
+          <t>0,79; 3,14</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,55; 2,8</t>
+          <t>0,44; 2,77</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,41; 80,33</t>
+          <t>-7,21; 84,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,46; 117,05</t>
+          <t>18,22; 131,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,42; 110,99</t>
+          <t>7,25; 107,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,43; 78,68</t>
+          <t>11,13; 81,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 57,12</t>
+          <t>-3,27; 57,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 53,46</t>
+          <t>-6,53; 54,59</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,99; 63,42</t>
+          <t>11,63; 66,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,34; 66,68</t>
+          <t>12,89; 67,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>9,74; 60,19</t>
+          <t>7,59; 59,94</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 3,77</t>
+          <t>-2,08; 3,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 1,43</t>
+          <t>-3,36; 1,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 2,39</t>
+          <t>-2,55; 2,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 2,75</t>
+          <t>-3,52; 2,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 3,31</t>
+          <t>-2,63; 3,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 4,4</t>
+          <t>-1,41; 4,24</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 2,22</t>
+          <t>-2,09; 2,07</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 1,54</t>
+          <t>-2,28; 1,45</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 2,79</t>
+          <t>-1,01; 2,76</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-43,6; 122,43</t>
+          <t>-45,17; 132,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-64,12; 53,56</t>
+          <t>-65,77; 40,99</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-46,13; 83,7</t>
+          <t>-46,93; 76,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-47,91; 68,25</t>
+          <t>-49,62; 61,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-37,24; 78,72</t>
+          <t>-37,45; 78,29</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-19,24; 98,62</t>
+          <t>-19,3; 97,87</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-35,57; 60,34</t>
+          <t>-35,67; 54,34</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-40,82; 39,17</t>
+          <t>-39,36; 36,66</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-17,4; 70,59</t>
+          <t>-16,23; 72,33</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 2,26</t>
+          <t>-0,2; 2,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 1,26</t>
+          <t>-1,11; 1,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 1,37</t>
+          <t>-1,0; 1,51</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,63; 6,75</t>
+          <t>3,65; 6,86</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,24; 4,26</t>
+          <t>1,16; 4,35</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,62; 3,63</t>
+          <t>0,68; 3,66</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,02; 4,17</t>
+          <t>2,1; 4,11</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,54; 2,44</t>
+          <t>0,46; 2,43</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,27</t>
+          <t>0,34; 2,23</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 41,77</t>
+          <t>-3,67; 42,03</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-15,86; 23,68</t>
+          <t>-16,27; 21,31</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-16,48; 24,74</t>
+          <t>-14,97; 27,76</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>34,79; 76,43</t>
+          <t>35,41; 78,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>12,02; 48,58</t>
+          <t>11,19; 50,02</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>6,14; 41,68</t>
+          <t>6,49; 41,67</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>25,09; 56,9</t>
+          <t>25,17; 55,71</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>6,68; 33,6</t>
+          <t>5,44; 33,34</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3,35; 31,43</t>
+          <t>4,1; 31,17</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P10_1_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P10_1_R-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 4,97</t>
+          <t>-0,93; 5,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 1,01</t>
+          <t>-4,83; 0,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 3,91</t>
+          <t>-2,06; 4,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,3; 13,37</t>
+          <t>7,45; 13,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,87; 12,58</t>
+          <t>5,58; 12,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,25; 13,77</t>
+          <t>7,42; 13,7</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,65; 8,86</t>
+          <t>4,78; 9,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,11; 6,86</t>
+          <t>2,04; 6,65</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,37; 9,17</t>
+          <t>4,53; 9,29</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 50,27</t>
+          <t>-7,37; 51,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-37,38; 10,15</t>
+          <t>-38,07; 8,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-16,92; 39,3</t>
+          <t>-17,2; 46,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>48,49; 108,6</t>
+          <t>48,69; 107,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>38,72; 100,75</t>
+          <t>35,65; 103,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>47,69; 111,96</t>
+          <t>48,76; 111,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>34,23; 77,58</t>
+          <t>34,47; 79,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,78; 58,41</t>
+          <t>15,02; 56,27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>32,09; 77,5</t>
+          <t>32,98; 79,81</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 2,45</t>
+          <t>-0,3; 2,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,88; 3,84</t>
+          <t>0,83; 3,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,42; 3,32</t>
+          <t>0,49; 3,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,84; 4,84</t>
+          <t>0,94; 4,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 3,48</t>
+          <t>-0,04; 3,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 3,21</t>
+          <t>-0,62; 3,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,76; 3,16</t>
+          <t>0,66; 3,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,79; 3,14</t>
+          <t>0,79; 3,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,77</t>
+          <t>0,54; 2,81</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 84,66</t>
+          <t>-7,08; 86,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,22; 131,69</t>
+          <t>17,71; 122,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,25; 107,69</t>
+          <t>11,19; 109,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,13; 81,32</t>
+          <t>11,75; 81,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 57,17</t>
+          <t>-0,49; 57,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 54,59</t>
+          <t>-7,3; 58,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,63; 66,58</t>
+          <t>10,86; 62,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,89; 67,68</t>
+          <t>14,31; 66,17</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,59; 59,94</t>
+          <t>9,33; 60,05</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 3,84</t>
+          <t>-2,28; 3,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 1,22</t>
+          <t>-3,41; 1,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 2,18</t>
+          <t>-2,47; 2,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 2,54</t>
+          <t>-3,79; 2,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 3,3</t>
+          <t>-2,43; 3,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 4,24</t>
+          <t>-1,54; 4,1</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 2,07</t>
+          <t>-2,14; 2,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 1,45</t>
+          <t>-2,2; 1,5</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 2,76</t>
+          <t>-0,96; 2,74</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-45,17; 132,16</t>
+          <t>-46,12; 122,89</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-65,77; 40,99</t>
+          <t>-65,03; 45,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-46,93; 76,3</t>
+          <t>-44,55; 80,98</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-49,62; 61,0</t>
+          <t>-53,32; 55,71</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-37,45; 78,29</t>
+          <t>-33,04; 85,74</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-19,3; 97,87</t>
+          <t>-21,15; 97,75</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-35,67; 54,34</t>
+          <t>-35,7; 59,27</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-39,36; 36,66</t>
+          <t>-37,55; 38,78</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-16,23; 72,33</t>
+          <t>-17,38; 68,28</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 2,31</t>
+          <t>-0,2; 2,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 1,23</t>
+          <t>-1,16; 1,28</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 1,51</t>
+          <t>-1,1; 1,38</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,65; 6,86</t>
+          <t>3,65; 6,93</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,16; 4,35</t>
+          <t>1,41; 4,35</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,68; 3,66</t>
+          <t>0,62; 3,63</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,1; 4,11</t>
+          <t>2,16; 4,18</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,46; 2,43</t>
+          <t>0,5; 2,42</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,23</t>
+          <t>0,35; 2,31</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 42,03</t>
+          <t>-2,9; 39,83</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-16,27; 21,31</t>
+          <t>-17,97; 23,11</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-14,97; 27,76</t>
+          <t>-16,35; 25,38</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>35,41; 78,0</t>
+          <t>35,48; 79,28</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>11,19; 50,02</t>
+          <t>13,89; 50,58</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>6,49; 41,67</t>
+          <t>5,84; 41,31</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>25,17; 55,71</t>
+          <t>26,41; 57,43</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>5,44; 33,34</t>
+          <t>6,11; 33,12</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4,1; 31,17</t>
+          <t>4,3; 31,41</t>
         </is>
       </c>
     </row>
